--- a/sp_front/dist/downloads/import.xlsx
+++ b/sp_front/dist/downloads/import.xlsx
@@ -12,330 +12,1389 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="108">
-  <si>
-    <t>482 1.1</t>
-  </si>
-  <si>
-    <t>6м1/18/4м1/8/4м1 (М</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="461">
+  <si>
+    <t>16830 1.2</t>
+  </si>
+  <si>
+    <t>4EL/24/4</t>
+  </si>
+  <si>
+    <t>660</t>
+  </si>
+  <si>
+    <t>1374</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2352956</t>
+  </si>
+  <si>
+    <t>Бригада 2</t>
+  </si>
+  <si>
+    <t>12.07.2023</t>
+  </si>
+  <si>
+    <t>16830 1.3</t>
+  </si>
+  <si>
+    <t>659</t>
+  </si>
+  <si>
+    <t>2352957</t>
+  </si>
+  <si>
+    <t>16830 1.4</t>
+  </si>
+  <si>
+    <t>563</t>
+  </si>
+  <si>
+    <t>1276</t>
+  </si>
+  <si>
+    <t>2352958</t>
+  </si>
+  <si>
+    <t>16830 1.5</t>
+  </si>
+  <si>
+    <t>2352959</t>
+  </si>
+  <si>
+    <t>16830 1.6</t>
+  </si>
+  <si>
+    <t>562</t>
+  </si>
+  <si>
+    <t>2352960</t>
+  </si>
+  <si>
+    <t>16830 2.1</t>
+  </si>
+  <si>
+    <t>451</t>
+  </si>
+  <si>
+    <t>2352953</t>
+  </si>
+  <si>
+    <t>16830 2.2</t>
+  </si>
+  <si>
+    <t>353</t>
+  </si>
+  <si>
+    <t>2352954</t>
+  </si>
+  <si>
+    <t>16830 3.2</t>
+  </si>
+  <si>
+    <t>638</t>
+  </si>
+  <si>
+    <t>2352955</t>
+  </si>
+  <si>
+    <t>14141 38.1</t>
+  </si>
+  <si>
+    <t>6/18/4/8/4И</t>
+  </si>
+  <si>
+    <t>720</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>2345450</t>
+  </si>
+  <si>
+    <t>14141 38.2</t>
+  </si>
+  <si>
+    <t>1266</t>
+  </si>
+  <si>
+    <t>2345452</t>
+  </si>
+  <si>
+    <t>14141 38.3</t>
+  </si>
+  <si>
+    <t>2345454</t>
+  </si>
+  <si>
+    <t>14141 38.4</t>
+  </si>
+  <si>
+    <t>2345456</t>
+  </si>
+  <si>
+    <t>14141 38.5</t>
+  </si>
+  <si>
+    <t>622</t>
+  </si>
+  <si>
+    <t>1168</t>
+  </si>
+  <si>
+    <t>2345457</t>
+  </si>
+  <si>
+    <t>14141 38.6</t>
+  </si>
+  <si>
+    <t>2345458</t>
+  </si>
+  <si>
+    <t>14141 39.2</t>
+  </si>
+  <si>
+    <t>666</t>
+  </si>
+  <si>
+    <t>2345448</t>
+  </si>
+  <si>
+    <t>14141 39.4</t>
+  </si>
+  <si>
+    <t>1217</t>
+  </si>
+  <si>
+    <t>2345447</t>
+  </si>
+  <si>
+    <t>14141 40.1</t>
+  </si>
+  <si>
+    <t>706</t>
+  </si>
+  <si>
+    <t>2345449</t>
+  </si>
+  <si>
+    <t>14141 40.2</t>
+  </si>
+  <si>
+    <t>2345451</t>
+  </si>
+  <si>
+    <t>14141 40.3</t>
+  </si>
+  <si>
+    <t>608</t>
+  </si>
+  <si>
+    <t>2345453</t>
+  </si>
+  <si>
+    <t>14141 40.4</t>
+  </si>
+  <si>
+    <t>2345455</t>
+  </si>
+  <si>
+    <t>16858 1.1</t>
+  </si>
+  <si>
+    <t>4/10/4/10/4</t>
+  </si>
+  <si>
+    <t>467</t>
+  </si>
+  <si>
+    <t>1254</t>
+  </si>
+  <si>
+    <t>2352687</t>
+  </si>
+  <si>
+    <t>2352688</t>
+  </si>
+  <si>
+    <t>16858 1.2</t>
+  </si>
+  <si>
+    <t>1156</t>
+  </si>
+  <si>
+    <t>2352696</t>
+  </si>
+  <si>
+    <t>2352697</t>
+  </si>
+  <si>
+    <t>16858 2.1</t>
+  </si>
+  <si>
+    <t>1204</t>
+  </si>
+  <si>
+    <t>2352689</t>
+  </si>
+  <si>
+    <t>16858 2.2</t>
+  </si>
+  <si>
+    <t>1106</t>
+  </si>
+  <si>
+    <t>2352698</t>
+  </si>
+  <si>
+    <t>16858 3.1</t>
+  </si>
+  <si>
+    <t>516</t>
+  </si>
+  <si>
+    <t>1224</t>
+  </si>
+  <si>
+    <t>2352690</t>
+  </si>
+  <si>
+    <t>16858 3.2</t>
+  </si>
+  <si>
+    <t>2352699</t>
+  </si>
+  <si>
+    <t>16858 4.1</t>
+  </si>
+  <si>
+    <t>2352691</t>
+  </si>
+  <si>
+    <t>16858 4.2</t>
+  </si>
+  <si>
+    <t>2352700</t>
+  </si>
+  <si>
+    <t>16858 5.2</t>
+  </si>
+  <si>
+    <t>457</t>
+  </si>
+  <si>
+    <t>1126</t>
+  </si>
+  <si>
+    <t>2352701</t>
+  </si>
+  <si>
+    <t>16858 5.3</t>
+  </si>
+  <si>
+    <t>2352692</t>
+  </si>
+  <si>
+    <t>16858 6.1</t>
+  </si>
+  <si>
+    <t>4/16/4</t>
+  </si>
+  <si>
+    <t>606</t>
+  </si>
+  <si>
+    <t>1044</t>
+  </si>
+  <si>
+    <t>2352693</t>
+  </si>
+  <si>
+    <t>16858 6.2</t>
+  </si>
+  <si>
+    <t>2352702</t>
+  </si>
+  <si>
+    <t>16858 7.2</t>
+  </si>
+  <si>
+    <t>437</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>2352703</t>
+  </si>
+  <si>
+    <t>16858 7.3</t>
+  </si>
+  <si>
+    <t>424</t>
+  </si>
+  <si>
+    <t>2352694</t>
+  </si>
+  <si>
+    <t>16858 8.1</t>
+  </si>
+  <si>
+    <t>656</t>
+  </si>
+  <si>
+    <t>1174</t>
+  </si>
+  <si>
+    <t>2352695</t>
+  </si>
+  <si>
+    <t>16858 8.2</t>
+  </si>
+  <si>
+    <t>2352704</t>
+  </si>
+  <si>
+    <t>14141 2.2</t>
+  </si>
+  <si>
+    <t>4/10/4/10/4И</t>
+  </si>
+  <si>
+    <t>762</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>2345283</t>
+  </si>
+  <si>
+    <t>14141 2.3</t>
+  </si>
+  <si>
+    <t>664</t>
+  </si>
+  <si>
+    <t>1925</t>
+  </si>
+  <si>
+    <t>2345290</t>
+  </si>
+  <si>
+    <t>14141 2.4</t>
+  </si>
+  <si>
+    <t>534</t>
+  </si>
+  <si>
+    <t>1639</t>
+  </si>
+  <si>
+    <t>2345297</t>
+  </si>
+  <si>
+    <t>14141 2.5</t>
+  </si>
+  <si>
+    <t>518</t>
+  </si>
+  <si>
+    <t>1541</t>
+  </si>
+  <si>
+    <t>2345302</t>
+  </si>
+  <si>
+    <t>14141 7.2</t>
+  </si>
+  <si>
+    <t>756</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>2345284</t>
+  </si>
+  <si>
+    <t>14141 7.3</t>
+  </si>
+  <si>
+    <t>658</t>
+  </si>
+  <si>
+    <t>1928</t>
+  </si>
+  <si>
+    <t>2345291</t>
+  </si>
+  <si>
+    <t>14141 7.4</t>
+  </si>
+  <si>
+    <t>1294</t>
+  </si>
+  <si>
+    <t>1644</t>
+  </si>
+  <si>
+    <t>2345298</t>
+  </si>
+  <si>
+    <t>14141 7.5</t>
+  </si>
+  <si>
+    <t>558</t>
+  </si>
+  <si>
+    <t>1546</t>
+  </si>
+  <si>
+    <t>2345303</t>
+  </si>
+  <si>
+    <t>14141 10.2</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>2345285</t>
+  </si>
+  <si>
+    <t>14141 10.3</t>
+  </si>
+  <si>
+    <t>1929</t>
+  </si>
+  <si>
+    <t>2345292</t>
+  </si>
+  <si>
+    <t>14141 10.5</t>
+  </si>
+  <si>
+    <t>2345304</t>
+  </si>
+  <si>
+    <t>14141 10.6</t>
+  </si>
+  <si>
+    <t>2345281</t>
+  </si>
+  <si>
+    <t>14141 15.2</t>
+  </si>
+  <si>
+    <t>2345286</t>
+  </si>
+  <si>
+    <t>14141 15.3</t>
+  </si>
+  <si>
+    <t>2345293</t>
+  </si>
+  <si>
+    <t>14141 15.5</t>
+  </si>
+  <si>
+    <t>2345305</t>
+  </si>
+  <si>
+    <t>14141 15.6</t>
+  </si>
+  <si>
+    <t>2345282</t>
+  </si>
+  <si>
+    <t>14141 25.2</t>
+  </si>
+  <si>
+    <t>2345287</t>
+  </si>
+  <si>
+    <t>14141 25.3</t>
+  </si>
+  <si>
+    <t>2345294</t>
+  </si>
+  <si>
+    <t>14141 25.4</t>
+  </si>
+  <si>
+    <t>2345299</t>
+  </si>
+  <si>
+    <t>14141 25.5</t>
+  </si>
+  <si>
+    <t>2345306</t>
+  </si>
+  <si>
+    <t>14141 35.2</t>
+  </si>
+  <si>
+    <t>2345288</t>
+  </si>
+  <si>
+    <t>14141 35.3</t>
+  </si>
+  <si>
+    <t>2345295</t>
+  </si>
+  <si>
+    <t>14141 35.4</t>
+  </si>
+  <si>
+    <t>2345300</t>
+  </si>
+  <si>
+    <t>14141 35.5</t>
+  </si>
+  <si>
+    <t>2345307</t>
+  </si>
+  <si>
+    <t>14141 37.2</t>
+  </si>
+  <si>
+    <t>2345289</t>
+  </si>
+  <si>
+    <t>14141 37.3</t>
+  </si>
+  <si>
+    <t>2345296</t>
+  </si>
+  <si>
+    <t>14141 37.4</t>
+  </si>
+  <si>
+    <t>2345301</t>
+  </si>
+  <si>
+    <t>14141 37.5</t>
+  </si>
+  <si>
+    <t>2345308</t>
+  </si>
+  <si>
+    <t>14141 1.1</t>
+  </si>
+  <si>
+    <t>787</t>
+  </si>
+  <si>
+    <t>313</t>
+  </si>
+  <si>
+    <t>2345332</t>
+  </si>
+  <si>
+    <t>14141 1.2</t>
+  </si>
+  <si>
+    <t>2345342</t>
+  </si>
+  <si>
+    <t>14141 1.3</t>
+  </si>
+  <si>
+    <t>2345344</t>
+  </si>
+  <si>
+    <t>14141 1.4</t>
+  </si>
+  <si>
+    <t>2345365</t>
+  </si>
+  <si>
+    <t>14141 1.8</t>
+  </si>
+  <si>
+    <t>689</t>
+  </si>
+  <si>
+    <t>2345370</t>
+  </si>
+  <si>
+    <t>14141 1.9</t>
+  </si>
+  <si>
+    <t>2345371</t>
+  </si>
+  <si>
+    <t>14141 3.1</t>
+  </si>
+  <si>
+    <t>2345345</t>
+  </si>
+  <si>
+    <t>14141 3.2</t>
+  </si>
+  <si>
+    <t>2345350</t>
+  </si>
+  <si>
+    <t>14141 3.3</t>
+  </si>
+  <si>
+    <t>2345355</t>
+  </si>
+  <si>
+    <t>14141 3.4</t>
+  </si>
+  <si>
+    <t>2345360</t>
+  </si>
+  <si>
+    <t>14141 4.1</t>
+  </si>
+  <si>
+    <t>764</t>
+  </si>
+  <si>
+    <t>2345324</t>
+  </si>
+  <si>
+    <t>14141 4.2</t>
+  </si>
+  <si>
+    <t>2345333</t>
+  </si>
+  <si>
+    <t>14141 5.1</t>
+  </si>
+  <si>
+    <t>2345325</t>
+  </si>
+  <si>
+    <t>14141 5.2</t>
+  </si>
+  <si>
+    <t>2345334</t>
+  </si>
+  <si>
+    <t>14141 6.1</t>
+  </si>
+  <si>
+    <t>2345348</t>
+  </si>
+  <si>
+    <t>14141 6.2</t>
+  </si>
+  <si>
+    <t>2345353</t>
+  </si>
+  <si>
+    <t>14141 6.3</t>
+  </si>
+  <si>
+    <t>2345358</t>
+  </si>
+  <si>
+    <t>14141 6.4</t>
+  </si>
+  <si>
+    <t>2345363</t>
+  </si>
+  <si>
+    <t>14141 6.5</t>
+  </si>
+  <si>
+    <t>2345366</t>
+  </si>
+  <si>
+    <t>14141 6.6</t>
+  </si>
+  <si>
+    <t>2345368</t>
+  </si>
+  <si>
+    <t>14141 8.1</t>
+  </si>
+  <si>
+    <t>2345326</t>
+  </si>
+  <si>
+    <t>14141 8.2</t>
+  </si>
+  <si>
+    <t>2345335</t>
+  </si>
+  <si>
+    <t>14141 9.1</t>
+  </si>
+  <si>
+    <t>2345349</t>
+  </si>
+  <si>
+    <t>14141 9.2</t>
+  </si>
+  <si>
+    <t>2345354</t>
+  </si>
+  <si>
+    <t>14141 9.3</t>
+  </si>
+  <si>
+    <t>2345359</t>
+  </si>
+  <si>
+    <t>14141 9.4</t>
+  </si>
+  <si>
+    <t>2345364</t>
+  </si>
+  <si>
+    <t>14141 9.5</t>
+  </si>
+  <si>
+    <t>2345367</t>
+  </si>
+  <si>
+    <t>14141 9.6</t>
+  </si>
+  <si>
+    <t>2345369</t>
+  </si>
+  <si>
+    <t>14141 11.1</t>
+  </si>
+  <si>
+    <t>2345336</t>
+  </si>
+  <si>
+    <t>14141 11.2</t>
+  </si>
+  <si>
+    <t>2345343</t>
+  </si>
+  <si>
+    <t>14141 12.1</t>
+  </si>
+  <si>
+    <t>2345346</t>
+  </si>
+  <si>
+    <t>14141 12.2</t>
+  </si>
+  <si>
+    <t>2345351</t>
+  </si>
+  <si>
+    <t>14141 12.3</t>
+  </si>
+  <si>
+    <t>2345356</t>
+  </si>
+  <si>
+    <t>14141 12.4</t>
+  </si>
+  <si>
+    <t>2345361</t>
+  </si>
+  <si>
+    <t>14141 13.1</t>
+  </si>
+  <si>
+    <t>2345327</t>
+  </si>
+  <si>
+    <t>14141 13.2</t>
+  </si>
+  <si>
+    <t>2345337</t>
+  </si>
+  <si>
+    <t>14141 14.1</t>
+  </si>
+  <si>
+    <t>2345328</t>
+  </si>
+  <si>
+    <t>14141 14.2</t>
+  </si>
+  <si>
+    <t>2345338</t>
+  </si>
+  <si>
+    <t>14141 16.1</t>
+  </si>
+  <si>
+    <t>2345329</t>
+  </si>
+  <si>
+    <t>14141 16.2</t>
+  </si>
+  <si>
+    <t>2345339</t>
+  </si>
+  <si>
+    <t>14141 17.1</t>
+  </si>
+  <si>
+    <t>2345330</t>
+  </si>
+  <si>
+    <t>14141 17.2</t>
+  </si>
+  <si>
+    <t>2345340</t>
+  </si>
+  <si>
+    <t>14141 18.1</t>
+  </si>
+  <si>
+    <t>2345331</t>
+  </si>
+  <si>
+    <t>14141 18.2</t>
+  </si>
+  <si>
+    <t>2345341</t>
+  </si>
+  <si>
+    <t>14141 19.1</t>
+  </si>
+  <si>
+    <t>806</t>
+  </si>
+  <si>
+    <t>2345347</t>
+  </si>
+  <si>
+    <t>14141 19.2</t>
+  </si>
+  <si>
+    <t>2345352</t>
+  </si>
+  <si>
+    <t>14141 19.3</t>
+  </si>
+  <si>
+    <t>708</t>
+  </si>
+  <si>
+    <t>2345357</t>
+  </si>
+  <si>
+    <t>14141 19.4</t>
+  </si>
+  <si>
+    <t>2345362</t>
+  </si>
+  <si>
+    <t>14141 20.1</t>
+  </si>
+  <si>
+    <t>2345403</t>
+  </si>
+  <si>
+    <t>14141 20.2</t>
+  </si>
+  <si>
+    <t>2345412</t>
+  </si>
+  <si>
+    <t>14141 20.3</t>
+  </si>
+  <si>
+    <t>2345421</t>
+  </si>
+  <si>
+    <t>14141 20.4</t>
+  </si>
+  <si>
+    <t>2345430</t>
+  </si>
+  <si>
+    <t>14141 21.1</t>
+  </si>
+  <si>
+    <t>2345404</t>
+  </si>
+  <si>
+    <t>14141 21.2</t>
+  </si>
+  <si>
+    <t>2345413</t>
+  </si>
+  <si>
+    <t>14141 21.3</t>
+  </si>
+  <si>
+    <t>2345422</t>
+  </si>
+  <si>
+    <t>14141 21.4</t>
+  </si>
+  <si>
+    <t>2345431</t>
+  </si>
+  <si>
+    <t>14141 22.1</t>
+  </si>
+  <si>
+    <t>2345391</t>
+  </si>
+  <si>
+    <t>14141 22.2</t>
+  </si>
+  <si>
+    <t>2345396</t>
+  </si>
+  <si>
+    <t>14141 23.1</t>
+  </si>
+  <si>
+    <t>2345405</t>
+  </si>
+  <si>
+    <t>14141 23.2</t>
+  </si>
+  <si>
+    <t>2345414</t>
+  </si>
+  <si>
+    <t>14141 23.3</t>
+  </si>
+  <si>
+    <t>2345423</t>
+  </si>
+  <si>
+    <t>14141 23.4</t>
+  </si>
+  <si>
+    <t>2345432</t>
+  </si>
+  <si>
+    <t>14141 24.1</t>
+  </si>
+  <si>
+    <t>2345392</t>
+  </si>
+  <si>
+    <t>14141 24.2</t>
+  </si>
+  <si>
+    <t>2345397</t>
+  </si>
+  <si>
+    <t>14141 26.1</t>
+  </si>
+  <si>
+    <t>2345406</t>
+  </si>
+  <si>
+    <t>14141 26.2</t>
+  </si>
+  <si>
+    <t>2345415</t>
+  </si>
+  <si>
+    <t>14141 26.3</t>
+  </si>
+  <si>
+    <t>2345424</t>
+  </si>
+  <si>
+    <t>14141 26.4</t>
+  </si>
+  <si>
+    <t>2345433</t>
+  </si>
+  <si>
+    <t>14141 27.1</t>
+  </si>
+  <si>
+    <t>2345393</t>
+  </si>
+  <si>
+    <t>14141 27.2</t>
+  </si>
+  <si>
+    <t>2345398</t>
+  </si>
+  <si>
+    <t>14141 28.1</t>
+  </si>
+  <si>
+    <t>2345407</t>
+  </si>
+  <si>
+    <t>14141 28.2</t>
+  </si>
+  <si>
+    <t>2345416</t>
+  </si>
+  <si>
+    <t>14141 28.3</t>
+  </si>
+  <si>
+    <t>2345425</t>
+  </si>
+  <si>
+    <t>14141 28.4</t>
+  </si>
+  <si>
+    <t>2345434</t>
+  </si>
+  <si>
+    <t>14141 29.1</t>
+  </si>
+  <si>
+    <t>2345408</t>
+  </si>
+  <si>
+    <t>14141 29.2</t>
+  </si>
+  <si>
+    <t>2345417</t>
+  </si>
+  <si>
+    <t>14141 29.3</t>
+  </si>
+  <si>
+    <t>2345426</t>
+  </si>
+  <si>
+    <t>14141 29.4</t>
+  </si>
+  <si>
+    <t>2345435</t>
+  </si>
+  <si>
+    <t>14141 30.1</t>
+  </si>
+  <si>
+    <t>2345409</t>
+  </si>
+  <si>
+    <t>14141 30.2</t>
+  </si>
+  <si>
+    <t>2345418</t>
+  </si>
+  <si>
+    <t>14141 30.3</t>
+  </si>
+  <si>
+    <t>2345427</t>
+  </si>
+  <si>
+    <t>14141 30.4</t>
+  </si>
+  <si>
+    <t>2345436</t>
+  </si>
+  <si>
+    <t>14141 31.1</t>
+  </si>
+  <si>
+    <t>2345394</t>
+  </si>
+  <si>
+    <t>14141 31.2</t>
+  </si>
+  <si>
+    <t>2345399</t>
+  </si>
+  <si>
+    <t>14141 32.1</t>
+  </si>
+  <si>
+    <t>2345395</t>
+  </si>
+  <si>
+    <t>14141 32.2</t>
+  </si>
+  <si>
+    <t>2345400</t>
+  </si>
+  <si>
+    <t>14141 33.1</t>
+  </si>
+  <si>
+    <t>2345401</t>
+  </si>
+  <si>
+    <t>14141 33.2</t>
+  </si>
+  <si>
+    <t>2345402</t>
+  </si>
+  <si>
+    <t>14141 34.1</t>
+  </si>
+  <si>
+    <t>2345410</t>
+  </si>
+  <si>
+    <t>14141 34.2</t>
+  </si>
+  <si>
+    <t>2345419</t>
+  </si>
+  <si>
+    <t>14141 34.3</t>
+  </si>
+  <si>
+    <t>2345428</t>
+  </si>
+  <si>
+    <t>14141 34.4</t>
+  </si>
+  <si>
+    <t>2345437</t>
+  </si>
+  <si>
+    <t>14141 34.5</t>
+  </si>
+  <si>
+    <t>2345439</t>
+  </si>
+  <si>
+    <t>14141 34.6</t>
+  </si>
+  <si>
+    <t>2345441</t>
+  </si>
+  <si>
+    <t>14141 36.1</t>
+  </si>
+  <si>
+    <t>2345411</t>
+  </si>
+  <si>
+    <t>14141 36.2</t>
+  </si>
+  <si>
+    <t>2345420</t>
+  </si>
+  <si>
+    <t>14141 36.3</t>
+  </si>
+  <si>
+    <t>2345429</t>
+  </si>
+  <si>
+    <t>14141 36.4</t>
+  </si>
+  <si>
+    <t>2345438</t>
+  </si>
+  <si>
+    <t>14141 36.5</t>
+  </si>
+  <si>
+    <t>2345440</t>
+  </si>
+  <si>
+    <t>14141 36.6</t>
+  </si>
+  <si>
+    <t>2345442</t>
+  </si>
+  <si>
+    <t>23172 1.1</t>
+  </si>
+  <si>
+    <t>4EL/14ПВХ/4/14ПВХ/4</t>
+  </si>
+  <si>
+    <t>1026</t>
+  </si>
+  <si>
+    <t>2354478</t>
+  </si>
+  <si>
+    <t>2354479</t>
+  </si>
+  <si>
+    <t>2354480</t>
+  </si>
+  <si>
+    <t>2354481</t>
+  </si>
+  <si>
+    <t>23173 1.1</t>
+  </si>
+  <si>
+    <t>377</t>
+  </si>
+  <si>
+    <t>1154</t>
+  </si>
+  <si>
+    <t>2354484</t>
+  </si>
+  <si>
+    <t>2354485</t>
+  </si>
+  <si>
+    <t>2354486</t>
+  </si>
+  <si>
+    <t>23173 1.2</t>
+  </si>
+  <si>
+    <t>1056</t>
+  </si>
+  <si>
+    <t>2354489</t>
+  </si>
+  <si>
+    <t>2354490</t>
+  </si>
+  <si>
+    <t>2354491</t>
+  </si>
+  <si>
+    <t>23172 2.1</t>
+  </si>
+  <si>
+    <t>704</t>
+  </si>
+  <si>
+    <t>1124</t>
+  </si>
+  <si>
+    <t>2354482</t>
+  </si>
+  <si>
+    <t>2354483</t>
+  </si>
+  <si>
+    <t>23173 2.1</t>
+  </si>
+  <si>
+    <t>426</t>
+  </si>
+  <si>
+    <t>2354487</t>
+  </si>
+  <si>
+    <t>23173 2.2</t>
+  </si>
+  <si>
+    <t>2354492</t>
+  </si>
+  <si>
+    <t>23173 3.1</t>
+  </si>
+  <si>
+    <t>456</t>
+  </si>
+  <si>
+    <t>2354488</t>
+  </si>
+  <si>
+    <t>22140 1.1</t>
+  </si>
+  <si>
+    <t>4/12/4/12/4</t>
+  </si>
+  <si>
+    <t>478</t>
+  </si>
+  <si>
+    <t>1216</t>
+  </si>
+  <si>
+    <t>2354547</t>
+  </si>
+  <si>
+    <t>22140 1.2</t>
+  </si>
+  <si>
+    <t>2354548</t>
+  </si>
+  <si>
+    <t>23197 1.1</t>
+  </si>
+  <si>
+    <t>4EL/10/4/10/4</t>
+  </si>
+  <si>
+    <t>526</t>
+  </si>
+  <si>
+    <t>2355716</t>
+  </si>
+  <si>
+    <t>23197 1.2</t>
+  </si>
+  <si>
+    <t>428</t>
+  </si>
+  <si>
+    <t>2355717</t>
+  </si>
+  <si>
+    <t>16865 1.1</t>
+  </si>
+  <si>
+    <t>567</t>
+  </si>
+  <si>
+    <t>1349</t>
+  </si>
+  <si>
+    <t>2355429</t>
+  </si>
+  <si>
+    <t>16865 1.3</t>
+  </si>
+  <si>
+    <t>2355430</t>
+  </si>
+  <si>
+    <t>16865 1.4</t>
+  </si>
+  <si>
+    <t>470</t>
+  </si>
+  <si>
+    <t>1251</t>
+  </si>
+  <si>
+    <t>2355431</t>
+  </si>
+  <si>
+    <t>23174 2.1</t>
+  </si>
+  <si>
+    <t>846</t>
+  </si>
+  <si>
+    <t>2354464</t>
+  </si>
+  <si>
+    <t>23174 3.1</t>
   </si>
   <si>
     <t>616</t>
   </si>
   <si>
-    <t>326</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>2467150</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2467151</t>
-  </si>
-  <si>
-    <t>2467152</t>
-  </si>
-  <si>
-    <t>2467153</t>
-  </si>
-  <si>
-    <t>482 1.2</t>
-  </si>
-  <si>
-    <t>608</t>
-  </si>
-  <si>
-    <t>2467164</t>
-  </si>
-  <si>
-    <t>2467165</t>
-  </si>
-  <si>
-    <t>2467166</t>
-  </si>
-  <si>
-    <t>2467167</t>
-  </si>
-  <si>
-    <t>482 1.3</t>
-  </si>
-  <si>
-    <t>2467188</t>
-  </si>
-  <si>
-    <t>2467189</t>
-  </si>
-  <si>
-    <t>2467190</t>
-  </si>
-  <si>
-    <t>2467191</t>
-  </si>
-  <si>
-    <t>482 1.4</t>
-  </si>
-  <si>
-    <t>1256</t>
-  </si>
-  <si>
-    <t>2467201</t>
-  </si>
-  <si>
-    <t>2467202</t>
-  </si>
-  <si>
-    <t>2467203</t>
-  </si>
-  <si>
-    <t>2467204</t>
-  </si>
-  <si>
-    <t>482 1.5</t>
-  </si>
-  <si>
-    <t>518</t>
-  </si>
-  <si>
-    <t>1158</t>
-  </si>
-  <si>
-    <t>2467205</t>
-  </si>
-  <si>
-    <t>2467206</t>
-  </si>
-  <si>
-    <t>2467207</t>
-  </si>
-  <si>
-    <t>2467208</t>
-  </si>
-  <si>
-    <t>482 1.6</t>
-  </si>
-  <si>
-    <t>2467209</t>
-  </si>
-  <si>
-    <t>2467210</t>
-  </si>
-  <si>
-    <t>2467211</t>
-  </si>
-  <si>
-    <t>2467212</t>
-  </si>
-  <si>
-    <t>482 2.1</t>
-  </si>
-  <si>
-    <t>646</t>
-  </si>
-  <si>
-    <t>2467154</t>
-  </si>
-  <si>
-    <t>2467155</t>
-  </si>
-  <si>
-    <t>2467156</t>
-  </si>
-  <si>
-    <t>2467157</t>
-  </si>
-  <si>
-    <t>2467158</t>
-  </si>
-  <si>
-    <t>2467159</t>
-  </si>
-  <si>
-    <t>2467160</t>
-  </si>
-  <si>
-    <t>2467161</t>
-  </si>
-  <si>
-    <t>482 2.2</t>
-  </si>
-  <si>
-    <t>2467168</t>
-  </si>
-  <si>
-    <t>2467169</t>
-  </si>
-  <si>
-    <t>2467170</t>
-  </si>
-  <si>
-    <t>2467171</t>
-  </si>
-  <si>
-    <t>2467172</t>
-  </si>
-  <si>
-    <t>2467173</t>
-  </si>
-  <si>
-    <t>2467174</t>
-  </si>
-  <si>
-    <t>2467175</t>
-  </si>
-  <si>
-    <t>482 2.3</t>
-  </si>
-  <si>
-    <t>548</t>
-  </si>
-  <si>
-    <t>2467179</t>
-  </si>
-  <si>
-    <t>2467180</t>
-  </si>
-  <si>
-    <t>2467181</t>
-  </si>
-  <si>
-    <t>2467182</t>
-  </si>
-  <si>
-    <t>2467183</t>
-  </si>
-  <si>
-    <t>2467184</t>
-  </si>
-  <si>
-    <t>2467185</t>
-  </si>
-  <si>
-    <t>2467186</t>
-  </si>
-  <si>
-    <t>482 2.4</t>
-  </si>
-  <si>
-    <t>2467192</t>
-  </si>
-  <si>
-    <t>2467193</t>
-  </si>
-  <si>
-    <t>2467194</t>
-  </si>
-  <si>
-    <t>2467195</t>
-  </si>
-  <si>
-    <t>2467196</t>
-  </si>
-  <si>
-    <t>2467197</t>
-  </si>
-  <si>
-    <t>2467198</t>
-  </si>
-  <si>
-    <t>2467199</t>
-  </si>
-  <si>
-    <t>482 3.1</t>
-  </si>
-  <si>
-    <t>496</t>
-  </si>
-  <si>
-    <t>2467148</t>
-  </si>
-  <si>
-    <t>482 3.2</t>
-  </si>
-  <si>
-    <t>2467162</t>
-  </si>
-  <si>
-    <t>482 3.3</t>
-  </si>
-  <si>
-    <t>2467176</t>
-  </si>
-  <si>
-    <t>482 3.4</t>
-  </si>
-  <si>
-    <t>2467178</t>
-  </si>
-  <si>
-    <t>482 4.1</t>
-  </si>
-  <si>
-    <t>544</t>
-  </si>
-  <si>
-    <t>2467147</t>
-  </si>
-  <si>
-    <t>482 4.2</t>
-  </si>
-  <si>
-    <t>446</t>
-  </si>
-  <si>
-    <t>2467149</t>
-  </si>
-  <si>
-    <t>482 5.1</t>
-  </si>
-  <si>
-    <t>2467163</t>
-  </si>
-  <si>
-    <t>482 5.2</t>
-  </si>
-  <si>
-    <t>2467177</t>
-  </si>
-  <si>
-    <t>482 5.3</t>
-  </si>
-  <si>
-    <t>398</t>
-  </si>
-  <si>
-    <t>2467187</t>
-  </si>
-  <si>
-    <t>482 5.4</t>
-  </si>
-  <si>
-    <t>2467200</t>
-  </si>
-  <si>
-    <t>482 6.1</t>
-  </si>
-  <si>
-    <t>494</t>
-  </si>
-  <si>
-    <t>2467213</t>
-  </si>
-  <si>
-    <t>482 6.2</t>
-  </si>
-  <si>
-    <t>396</t>
-  </si>
-  <si>
-    <t>2467214</t>
+    <t>944</t>
+  </si>
+  <si>
+    <t>2354465</t>
+  </si>
+  <si>
+    <t>23174 3.2</t>
+  </si>
+  <si>
+    <t>2354466</t>
   </si>
 </sst>
 </file>
@@ -380,7 +1439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:J191"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -415,7 +1474,7 @@
         <v>7</v>
       </c>
       <c r="J1" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2">
@@ -423,13 +1482,13 @@
         <v>2.0</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>1</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>3</v>
@@ -441,13 +1500,13 @@
         <v>5</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -455,16 +1514,16 @@
         <v>3.0</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>1</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s" s="0">
         <v>4</v>
@@ -473,13 +1532,13 @@
         <v>5</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -487,7 +1546,7 @@
         <v>4.0</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>1</v>
@@ -505,13 +1564,13 @@
         <v>5</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +1578,16 @@
         <v>5.0</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>1</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s" s="0">
         <v>4</v>
@@ -537,13 +1596,13 @@
         <v>5</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -551,13 +1610,13 @@
         <v>6.0</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>1</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>3</v>
@@ -569,13 +1628,13 @@
         <v>5</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I6" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -583,16 +1642,16 @@
         <v>7.0</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>1</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s" s="0">
         <v>4</v>
@@ -601,13 +1660,13 @@
         <v>5</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I7" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -615,16 +1674,16 @@
         <v>8.0</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>1</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s" s="0">
         <v>4</v>
@@ -633,13 +1692,13 @@
         <v>5</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I8" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -647,16 +1706,16 @@
         <v>9.0</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s" s="0">
         <v>4</v>
@@ -665,13 +1724,13 @@
         <v>5</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I9" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -679,16 +1738,16 @@
         <v>10.0</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s" s="0">
         <v>4</v>
@@ -697,13 +1756,13 @@
         <v>5</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="I10" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J10" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -711,16 +1770,16 @@
         <v>11.0</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s" s="0">
         <v>4</v>
@@ -729,13 +1788,13 @@
         <v>5</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I11" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J11" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -743,16 +1802,16 @@
         <v>12.0</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s" s="0">
         <v>4</v>
@@ -761,13 +1820,13 @@
         <v>5</v>
       </c>
       <c r="H12" t="s" s="0">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I12" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J12" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -775,16 +1834,16 @@
         <v>13.0</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s" s="0">
         <v>4</v>
@@ -793,13 +1852,13 @@
         <v>5</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="I13" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J13" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -807,16 +1866,16 @@
         <v>14.0</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s" s="0">
         <v>4</v>
@@ -825,13 +1884,13 @@
         <v>5</v>
       </c>
       <c r="H14" t="s" s="0">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J14" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -839,16 +1898,16 @@
         <v>15.0</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s" s="0">
         <v>4</v>
@@ -857,13 +1916,13 @@
         <v>5</v>
       </c>
       <c r="H15" t="s" s="0">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I15" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J15" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -871,16 +1930,16 @@
         <v>16.0</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="F16" t="s" s="0">
         <v>4</v>
@@ -889,13 +1948,13 @@
         <v>5</v>
       </c>
       <c r="H16" t="s" s="0">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I16" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J16" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -903,16 +1962,16 @@
         <v>17.0</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s" s="0">
         <v>4</v>
@@ -921,13 +1980,13 @@
         <v>5</v>
       </c>
       <c r="H17" t="s" s="0">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="I17" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J17" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -935,16 +1994,16 @@
         <v>18.0</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s" s="0">
         <v>4</v>
@@ -953,13 +2012,13 @@
         <v>5</v>
       </c>
       <c r="H18" t="s" s="0">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="I18" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J18" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -967,16 +2026,16 @@
         <v>19.0</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s" s="0">
         <v>4</v>
@@ -985,13 +2044,13 @@
         <v>5</v>
       </c>
       <c r="H19" t="s" s="0">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="I19" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J19" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -999,16 +2058,16 @@
         <v>20.0</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s" s="0">
         <v>4</v>
@@ -1017,13 +2076,13 @@
         <v>5</v>
       </c>
       <c r="H20" t="s" s="0">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="I20" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J20" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1031,16 +2090,16 @@
         <v>21.0</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="F21" t="s" s="0">
         <v>4</v>
@@ -1049,13 +2108,13 @@
         <v>5</v>
       </c>
       <c r="H21" t="s" s="0">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="I21" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J21" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1063,16 +2122,16 @@
         <v>22.0</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="F22" t="s" s="0">
         <v>4</v>
@@ -1081,13 +2140,13 @@
         <v>5</v>
       </c>
       <c r="H22" t="s" s="0">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="I22" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J22" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1095,16 +2154,16 @@
         <v>23.0</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="F23" t="s" s="0">
         <v>4</v>
@@ -1113,13 +2172,13 @@
         <v>5</v>
       </c>
       <c r="H23" t="s" s="0">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="I23" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J23" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -1127,16 +2186,16 @@
         <v>24.0</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="F24" t="s" s="0">
         <v>4</v>
@@ -1145,13 +2204,13 @@
         <v>5</v>
       </c>
       <c r="H24" t="s" s="0">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="I24" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J24" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -1159,16 +2218,16 @@
         <v>25.0</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="F25" t="s" s="0">
         <v>4</v>
@@ -1177,13 +2236,13 @@
         <v>5</v>
       </c>
       <c r="H25" t="s" s="0">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="I25" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J25" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -1191,16 +2250,16 @@
         <v>26.0</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="F26" t="s" s="0">
         <v>4</v>
@@ -1209,13 +2268,13 @@
         <v>5</v>
       </c>
       <c r="H26" t="s" s="0">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="I26" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J26" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -1223,16 +2282,16 @@
         <v>27.0</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="F27" t="s" s="0">
         <v>4</v>
@@ -1241,13 +2300,13 @@
         <v>5</v>
       </c>
       <c r="H27" t="s" s="0">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="I27" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J27" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -1255,16 +2314,16 @@
         <v>28.0</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="F28" t="s" s="0">
         <v>4</v>
@@ -1273,13 +2332,13 @@
         <v>5</v>
       </c>
       <c r="H28" t="s" s="0">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="I28" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J28" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -1287,16 +2346,16 @@
         <v>29.0</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="F29" t="s" s="0">
         <v>4</v>
@@ -1305,13 +2364,13 @@
         <v>5</v>
       </c>
       <c r="H29" t="s" s="0">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="I29" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J29" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -1319,16 +2378,16 @@
         <v>30.0</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="F30" t="s" s="0">
         <v>4</v>
@@ -1337,13 +2396,13 @@
         <v>5</v>
       </c>
       <c r="H30" t="s" s="0">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="I30" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J30" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -1351,16 +2410,16 @@
         <v>31.0</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="F31" t="s" s="0">
         <v>4</v>
@@ -1369,13 +2428,13 @@
         <v>5</v>
       </c>
       <c r="H31" t="s" s="0">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="I31" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J31" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -1383,16 +2442,16 @@
         <v>32.0</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="F32" t="s" s="0">
         <v>4</v>
@@ -1401,13 +2460,13 @@
         <v>5</v>
       </c>
       <c r="H32" t="s" s="0">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="I32" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J32" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -1415,16 +2474,16 @@
         <v>33.0</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="F33" t="s" s="0">
         <v>4</v>
@@ -1433,13 +2492,13 @@
         <v>5</v>
       </c>
       <c r="H33" t="s" s="0">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="I33" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J33" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -1447,16 +2506,16 @@
         <v>34.0</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="F34" t="s" s="0">
         <v>4</v>
@@ -1465,13 +2524,13 @@
         <v>5</v>
       </c>
       <c r="H34" t="s" s="0">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="I34" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J34" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -1479,16 +2538,16 @@
         <v>35.0</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="F35" t="s" s="0">
         <v>4</v>
@@ -1497,13 +2556,13 @@
         <v>5</v>
       </c>
       <c r="H35" t="s" s="0">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="I35" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J35" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -1511,16 +2570,16 @@
         <v>36.0</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="F36" t="s" s="0">
         <v>4</v>
@@ -1529,13 +2588,13 @@
         <v>5</v>
       </c>
       <c r="H36" t="s" s="0">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="I36" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J36" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -1543,16 +2602,16 @@
         <v>37.0</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="F37" t="s" s="0">
         <v>4</v>
@@ -1561,13 +2620,13 @@
         <v>5</v>
       </c>
       <c r="H37" t="s" s="0">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="I37" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J37" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
@@ -1575,16 +2634,16 @@
         <v>38.0</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="F38" t="s" s="0">
         <v>4</v>
@@ -1593,13 +2652,13 @@
         <v>5</v>
       </c>
       <c r="H38" t="s" s="0">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="I38" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J38" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -1607,16 +2666,16 @@
         <v>39.0</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="F39" t="s" s="0">
         <v>4</v>
@@ -1625,13 +2684,13 @@
         <v>5</v>
       </c>
       <c r="H39" t="s" s="0">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="I39" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J39" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
@@ -1639,16 +2698,16 @@
         <v>40.0</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="E40" t="s" s="0">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="F40" t="s" s="0">
         <v>4</v>
@@ -1657,13 +2716,13 @@
         <v>5</v>
       </c>
       <c r="H40" t="s" s="0">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="I40" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J40" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -1671,16 +2730,16 @@
         <v>41.0</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="E41" t="s" s="0">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="F41" t="s" s="0">
         <v>4</v>
@@ -1689,13 +2748,13 @@
         <v>5</v>
       </c>
       <c r="H41" t="s" s="0">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="I41" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J41" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
@@ -1703,16 +2762,16 @@
         <v>42.0</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="E42" t="s" s="0">
-        <v>30</v>
+        <v>131</v>
       </c>
       <c r="F42" t="s" s="0">
         <v>4</v>
@@ -1721,13 +2780,13 @@
         <v>5</v>
       </c>
       <c r="H42" t="s" s="0">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="I42" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J42" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
@@ -1735,16 +2794,16 @@
         <v>43.0</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="E43" t="s" s="0">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="F43" t="s" s="0">
         <v>4</v>
@@ -1753,13 +2812,13 @@
         <v>5</v>
       </c>
       <c r="H43" t="s" s="0">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="I43" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J43" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
@@ -1767,16 +2826,16 @@
         <v>44.0</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="E44" t="s" s="0">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="F44" t="s" s="0">
         <v>4</v>
@@ -1785,13 +2844,13 @@
         <v>5</v>
       </c>
       <c r="H44" t="s" s="0">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="I44" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J44" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
@@ -1799,16 +2858,16 @@
         <v>45.0</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="E45" t="s" s="0">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="F45" t="s" s="0">
         <v>4</v>
@@ -1817,13 +2876,13 @@
         <v>5</v>
       </c>
       <c r="H45" t="s" s="0">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="I45" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J45" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
@@ -1831,16 +2890,16 @@
         <v>46.0</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>60</v>
+        <v>146</v>
       </c>
       <c r="E46" t="s" s="0">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="F46" t="s" s="0">
         <v>4</v>
@@ -1849,13 +2908,13 @@
         <v>5</v>
       </c>
       <c r="H46" t="s" s="0">
-        <v>66</v>
+        <v>148</v>
       </c>
       <c r="I46" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J46" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
@@ -1863,16 +2922,16 @@
         <v>47.0</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>59</v>
+        <v>149</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="E47" t="s" s="0">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="F47" t="s" s="0">
         <v>4</v>
@@ -1881,13 +2940,13 @@
         <v>5</v>
       </c>
       <c r="H47" t="s" s="0">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="I47" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J47" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
@@ -1895,16 +2954,16 @@
         <v>48.0</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>59</v>
+        <v>152</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="E48" t="s" s="0">
-        <v>30</v>
+        <v>153</v>
       </c>
       <c r="F48" t="s" s="0">
         <v>4</v>
@@ -1913,13 +2972,13 @@
         <v>5</v>
       </c>
       <c r="H48" t="s" s="0">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="I48" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J48" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
@@ -1927,16 +2986,16 @@
         <v>49.0</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>60</v>
+        <v>146</v>
       </c>
       <c r="E49" t="s" s="0">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="F49" t="s" s="0">
         <v>4</v>
@@ -1945,13 +3004,13 @@
         <v>5</v>
       </c>
       <c r="H49" t="s" s="0">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="I49" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J49" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
@@ -1959,16 +3018,16 @@
         <v>50.0</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>69</v>
+        <v>157</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="E50" t="s" s="0">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="F50" t="s" s="0">
         <v>4</v>
@@ -1977,13 +3036,13 @@
         <v>5</v>
       </c>
       <c r="H50" t="s" s="0">
-        <v>71</v>
+        <v>158</v>
       </c>
       <c r="I50" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J50" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
@@ -1991,16 +3050,16 @@
         <v>51.0</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>69</v>
+        <v>159</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="E51" t="s" s="0">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="F51" t="s" s="0">
         <v>4</v>
@@ -2009,13 +3068,13 @@
         <v>5</v>
       </c>
       <c r="H51" t="s" s="0">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="I51" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J51" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52">
@@ -2023,16 +3082,16 @@
         <v>52.0</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="E52" t="s" s="0">
-        <v>30</v>
+        <v>153</v>
       </c>
       <c r="F52" t="s" s="0">
         <v>4</v>
@@ -2041,13 +3100,13 @@
         <v>5</v>
       </c>
       <c r="H52" t="s" s="0">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="I52" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J52" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
@@ -2055,16 +3114,16 @@
         <v>53.0</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>69</v>
+        <v>163</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="E53" t="s" s="0">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="F53" t="s" s="0">
         <v>4</v>
@@ -2073,13 +3132,13 @@
         <v>5</v>
       </c>
       <c r="H53" t="s" s="0">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="I53" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J53" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54">
@@ -2087,16 +3146,16 @@
         <v>54.0</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>69</v>
+        <v>165</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="E54" t="s" s="0">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="F54" t="s" s="0">
         <v>4</v>
@@ -2105,13 +3164,13 @@
         <v>5</v>
       </c>
       <c r="H54" t="s" s="0">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="I54" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J54" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
@@ -2119,16 +3178,16 @@
         <v>55.0</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>69</v>
+        <v>167</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="E55" t="s" s="0">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="F55" t="s" s="0">
         <v>4</v>
@@ -2137,13 +3196,13 @@
         <v>5</v>
       </c>
       <c r="H55" t="s" s="0">
-        <v>76</v>
+        <v>168</v>
       </c>
       <c r="I55" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J55" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
@@ -2151,16 +3210,16 @@
         <v>56.0</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>69</v>
+        <v>169</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="E56" t="s" s="0">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="F56" t="s" s="0">
         <v>4</v>
@@ -2169,13 +3228,13 @@
         <v>5</v>
       </c>
       <c r="H56" t="s" s="0">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="I56" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J56" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
@@ -2183,16 +3242,16 @@
         <v>57.0</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="E57" t="s" s="0">
-        <v>3</v>
+        <v>127</v>
       </c>
       <c r="F57" t="s" s="0">
         <v>4</v>
@@ -2201,13 +3260,13 @@
         <v>5</v>
       </c>
       <c r="H57" t="s" s="0">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="I57" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J57" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
@@ -2215,16 +3274,16 @@
         <v>58.0</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="E58" t="s" s="0">
-        <v>3</v>
+        <v>131</v>
       </c>
       <c r="F58" t="s" s="0">
         <v>4</v>
@@ -2233,13 +3292,13 @@
         <v>5</v>
       </c>
       <c r="H58" t="s" s="0">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="I58" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J58" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
@@ -2247,16 +3306,16 @@
         <v>59.0</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>83</v>
+        <v>175</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="E59" t="s" s="0">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="F59" t="s" s="0">
         <v>4</v>
@@ -2265,13 +3324,13 @@
         <v>5</v>
       </c>
       <c r="H59" t="s" s="0">
-        <v>84</v>
+        <v>176</v>
       </c>
       <c r="I59" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J59" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
@@ -2279,16 +3338,16 @@
         <v>60.0</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>85</v>
+        <v>177</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="E60" t="s" s="0">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="F60" t="s" s="0">
         <v>4</v>
@@ -2297,13 +3356,13 @@
         <v>5</v>
       </c>
       <c r="H60" t="s" s="0">
-        <v>86</v>
+        <v>178</v>
       </c>
       <c r="I60" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J60" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61">
@@ -2311,16 +3370,16 @@
         <v>61.0</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>87</v>
+        <v>179</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="E61" t="s" s="0">
-        <v>3</v>
+        <v>127</v>
       </c>
       <c r="F61" t="s" s="0">
         <v>4</v>
@@ -2329,13 +3388,13 @@
         <v>5</v>
       </c>
       <c r="H61" t="s" s="0">
-        <v>89</v>
+        <v>180</v>
       </c>
       <c r="I61" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J61" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
@@ -2343,16 +3402,16 @@
         <v>62.0</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>90</v>
+        <v>181</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="E62" t="s" s="0">
-        <v>30</v>
+        <v>131</v>
       </c>
       <c r="F62" t="s" s="0">
         <v>4</v>
@@ -2361,13 +3420,13 @@
         <v>5</v>
       </c>
       <c r="H62" t="s" s="0">
-        <v>92</v>
+        <v>182</v>
       </c>
       <c r="I62" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J62" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63">
@@ -2375,16 +3434,16 @@
         <v>63.0</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>93</v>
+        <v>183</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="E63" t="s" s="0">
-        <v>3</v>
+        <v>135</v>
       </c>
       <c r="F63" t="s" s="0">
         <v>4</v>
@@ -2393,13 +3452,13 @@
         <v>5</v>
       </c>
       <c r="H63" t="s" s="0">
-        <v>94</v>
+        <v>184</v>
       </c>
       <c r="I63" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J63" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64">
@@ -2407,16 +3466,16 @@
         <v>64.0</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="E64" t="s" s="0">
-        <v>3</v>
+        <v>139</v>
       </c>
       <c r="F64" t="s" s="0">
         <v>4</v>
@@ -2425,13 +3484,13 @@
         <v>5</v>
       </c>
       <c r="H64" t="s" s="0">
-        <v>96</v>
+        <v>186</v>
       </c>
       <c r="I64" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J64" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65">
@@ -2439,16 +3498,16 @@
         <v>65.0</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>97</v>
+        <v>187</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="E65" t="s" s="0">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="F65" t="s" s="0">
         <v>4</v>
@@ -2457,13 +3516,13 @@
         <v>5</v>
       </c>
       <c r="H65" t="s" s="0">
-        <v>99</v>
+        <v>188</v>
       </c>
       <c r="I65" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J65" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66">
@@ -2471,16 +3530,16 @@
         <v>66.0</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>100</v>
+        <v>189</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="E66" t="s" s="0">
-        <v>30</v>
+        <v>131</v>
       </c>
       <c r="F66" t="s" s="0">
         <v>4</v>
@@ -2489,13 +3548,13 @@
         <v>5</v>
       </c>
       <c r="H66" t="s" s="0">
-        <v>101</v>
+        <v>190</v>
       </c>
       <c r="I66" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J66" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67">
@@ -2503,16 +3562,16 @@
         <v>67.0</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>102</v>
+        <v>191</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>103</v>
+        <v>192</v>
       </c>
       <c r="E67" t="s" s="0">
-        <v>3</v>
+        <v>193</v>
       </c>
       <c r="F67" t="s" s="0">
         <v>4</v>
@@ -2521,13 +3580,13 @@
         <v>5</v>
       </c>
       <c r="H67" t="s" s="0">
-        <v>104</v>
+        <v>194</v>
       </c>
       <c r="I67" t="s" s="0">
         <v>7</v>
       </c>
       <c r="J67" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68">
@@ -2535,31 +3594,3967 @@
         <v>68.0</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>105</v>
+        <v>195</v>
       </c>
       <c r="C68" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D68" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="E68" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F68" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G68" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H68" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="I68" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J68" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n" s="0">
+        <v>69.0</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D69" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="E69" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="F69" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G69" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H69" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="I69" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J69" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n" s="0">
+        <v>70.0</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D70" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="E70" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="F70" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G70" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H70" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="I70" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J70" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n" s="0">
+        <v>71.0</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D71" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="E71" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G71" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H71" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="I71" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J71" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n" s="0">
+        <v>72.0</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D72" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="E72" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G72" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H72" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="I72" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J72" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n" s="0">
+        <v>73.0</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D73" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E73" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F73" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G73" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H73" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="I73" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J73" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n" s="0">
+        <v>74.0</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="C74" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D74" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E74" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F74" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G74" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H74" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="I74" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J74" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n" s="0">
+        <v>75.0</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="C75" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D75" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="E75" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G75" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H75" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="I75" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J75" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n" s="0">
+        <v>76.0</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="C76" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D76" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="E76" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G76" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H76" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="I76" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J76" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n" s="0">
+        <v>77.0</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="C77" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D77" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="E77" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F77" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G77" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H77" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="I77" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J77" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n" s="0">
+        <v>78.0</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D78" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E78" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G78" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H78" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="I78" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J78" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n" s="0">
+        <v>79.0</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="C79" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D79" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="E79" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F79" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G79" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H79" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="I79" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J79" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n" s="0">
+        <v>80.0</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="C80" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D80" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E80" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G80" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H80" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="I80" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J80" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n" s="0">
+        <v>81.0</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="C81" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D81" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="E81" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F81" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G81" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H81" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I81" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J81" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n" s="0">
+        <v>82.0</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="C82" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D82" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="E82" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F82" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G82" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H82" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="I82" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J82" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n" s="0">
+        <v>83.0</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="C83" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D83" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="E83" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F83" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G83" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H83" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="I83" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J83" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n" s="0">
+        <v>84.0</v>
+      </c>
+      <c r="B84" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="C84" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D84" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="E84" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F84" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G84" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H84" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="I84" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J84" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n" s="0">
+        <v>85.0</v>
+      </c>
+      <c r="B85" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="C85" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D85" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="E85" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G85" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H85" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="I85" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J85" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n" s="0">
+        <v>86.0</v>
+      </c>
+      <c r="B86" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="C86" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D86" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="E86" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G86" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H86" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="I86" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J86" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n" s="0">
+        <v>87.0</v>
+      </c>
+      <c r="B87" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="C87" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D87" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="E87" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F87" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G87" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H87" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="I87" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J87" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n" s="0">
+        <v>88.0</v>
+      </c>
+      <c r="B88" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="C88" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D88" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E88" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G88" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H88" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="I88" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J88" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n" s="0">
+        <v>89.0</v>
+      </c>
+      <c r="B89" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="C89" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D89" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="E89" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F89" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G89" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H89" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="I89" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J89" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n" s="0">
+        <v>90.0</v>
+      </c>
+      <c r="B90" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="C90" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D90" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="E90" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F90" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G90" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H90" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="I90" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J90" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n" s="0">
+        <v>91.0</v>
+      </c>
+      <c r="B91" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="C91" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D91" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="E91" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F91" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G91" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H91" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="I91" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J91" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n" s="0">
+        <v>92.0</v>
+      </c>
+      <c r="B92" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="C92" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D92" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="E92" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F92" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G92" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H92" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="I92" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J92" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n" s="0">
+        <v>93.0</v>
+      </c>
+      <c r="B93" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="C93" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D93" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="E93" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G93" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H93" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="I93" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J93" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n" s="0">
+        <v>94.0</v>
+      </c>
+      <c r="B94" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C94" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D94" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="E94" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G94" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H94" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="I94" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J94" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n" s="0">
+        <v>95.0</v>
+      </c>
+      <c r="B95" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="C95" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D95" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E95" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="F95" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G95" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H95" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="I95" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J95" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n" s="0">
+        <v>96.0</v>
+      </c>
+      <c r="B96" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="C96" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D96" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E96" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F96" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G96" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H96" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="I96" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J96" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n" s="0">
+        <v>97.0</v>
+      </c>
+      <c r="B97" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="C97" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D97" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E97" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F97" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G97" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H97" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="I97" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J97" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n" s="0">
+        <v>98.0</v>
+      </c>
+      <c r="B98" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="C98" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D98" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E98" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F98" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G98" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H98" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="I98" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J98" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n" s="0">
+        <v>99.0</v>
+      </c>
+      <c r="B99" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="C99" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D99" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="E99" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G99" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H99" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="I99" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J99" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="B100" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="C100" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D100" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="E100" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G100" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H100" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="I100" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J100" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n" s="0">
+        <v>101.0</v>
+      </c>
+      <c r="B101" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="C101" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D101" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="E101" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F101" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G101" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H101" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="I101" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J101" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n" s="0">
+        <v>102.0</v>
+      </c>
+      <c r="B102" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="C102" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D102" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E102" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G102" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H102" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="I102" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J102" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n" s="0">
+        <v>103.0</v>
+      </c>
+      <c r="B103" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="C103" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D103" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="E103" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F103" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G103" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H103" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="I103" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J103" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n" s="0">
+        <v>104.0</v>
+      </c>
+      <c r="B104" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="C104" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D104" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E104" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G104" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H104" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="I104" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J104" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n" s="0">
+        <v>105.0</v>
+      </c>
+      <c r="B105" t="s" s="0">
+        <v>271</v>
+      </c>
+      <c r="C105" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D105" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="E105" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F105" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G105" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H105" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="I105" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J105" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n" s="0">
+        <v>106.0</v>
+      </c>
+      <c r="B106" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="C106" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D106" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E106" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G106" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H106" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="I106" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J106" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n" s="0">
+        <v>107.0</v>
+      </c>
+      <c r="B107" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="C107" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D107" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="E107" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F107" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G107" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H107" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="I107" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J107" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n" s="0">
+        <v>108.0</v>
+      </c>
+      <c r="B108" t="s" s="0">
+        <v>277</v>
+      </c>
+      <c r="C108" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D108" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E108" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G108" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H108" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="I108" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J108" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n" s="0">
+        <v>109.0</v>
+      </c>
+      <c r="B109" t="s" s="0">
+        <v>279</v>
+      </c>
+      <c r="C109" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D109" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="E109" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F109" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G109" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H109" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="I109" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J109" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="B110" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="C110" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D110" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E110" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G110" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H110" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="I110" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J110" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n" s="0">
+        <v>111.0</v>
+      </c>
+      <c r="B111" t="s" s="0">
+        <v>283</v>
+      </c>
+      <c r="C111" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D111" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="E111" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F111" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G111" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H111" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="I111" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J111" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n" s="0">
+        <v>112.0</v>
+      </c>
+      <c r="B112" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="C112" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D112" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="E112" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F112" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G112" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H112" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="I112" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J112" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n" s="0">
+        <v>113.0</v>
+      </c>
+      <c r="B113" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="C113" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D113" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="E113" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F113" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G113" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H113" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="I113" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J113" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n" s="0">
+        <v>114.0</v>
+      </c>
+      <c r="B114" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="C114" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D114" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="E114" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F114" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G114" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H114" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="I114" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J114" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n" s="0">
+        <v>115.0</v>
+      </c>
+      <c r="B115" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="C115" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D115" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="E115" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F115" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G115" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H115" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="I115" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J115" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n" s="0">
+        <v>116.0</v>
+      </c>
+      <c r="B116" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="C116" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D116" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="E116" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F116" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G116" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H116" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="I116" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J116" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n" s="0">
+        <v>117.0</v>
+      </c>
+      <c r="B117" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="C117" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D117" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="E117" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F117" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G117" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H117" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="I117" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J117" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n" s="0">
+        <v>118.0</v>
+      </c>
+      <c r="B118" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="C118" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D118" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="E118" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F118" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G118" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H118" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="I118" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J118" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n" s="0">
+        <v>119.0</v>
+      </c>
+      <c r="B119" t="s" s="0">
+        <v>301</v>
+      </c>
+      <c r="C119" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D119" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="E119" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F119" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G119" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H119" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="I119" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J119" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n" s="0">
+        <v>120.0</v>
+      </c>
+      <c r="B120" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="C120" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D120" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="E120" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F120" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G120" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H120" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="I120" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J120" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n" s="0">
+        <v>121.0</v>
+      </c>
+      <c r="B121" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="C121" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D121" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="E121" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F121" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G121" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H121" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="I121" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J121" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n" s="0">
+        <v>122.0</v>
+      </c>
+      <c r="B122" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="C122" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D122" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="E122" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F122" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G122" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H122" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="I122" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J122" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n" s="0">
+        <v>123.0</v>
+      </c>
+      <c r="B123" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="C123" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D123" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="E123" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F123" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G123" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H123" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="I123" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J123" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n" s="0">
+        <v>124.0</v>
+      </c>
+      <c r="B124" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="C124" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D124" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E124" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F124" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G124" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H124" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="I124" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J124" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n" s="0">
+        <v>125.0</v>
+      </c>
+      <c r="B125" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="C125" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D125" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="E125" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F125" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G125" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H125" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="I125" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J125" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n" s="0">
+        <v>126.0</v>
+      </c>
+      <c r="B126" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="C126" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D126" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="E126" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F126" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G126" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H126" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="I126" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J126" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n" s="0">
+        <v>127.0</v>
+      </c>
+      <c r="B127" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="C127" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D127" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="E127" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F127" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G127" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H127" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="I127" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J127" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n" s="0">
+        <v>128.0</v>
+      </c>
+      <c r="B128" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="C128" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D128" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="E128" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F128" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G128" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H128" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="I128" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J128" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n" s="0">
+        <v>129.0</v>
+      </c>
+      <c r="B129" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="C129" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D129" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="E129" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F129" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G129" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H129" t="s" s="0">
+        <v>322</v>
+      </c>
+      <c r="I129" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J129" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n" s="0">
+        <v>130.0</v>
+      </c>
+      <c r="B130" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="C130" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D130" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E130" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F130" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G130" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H130" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="I130" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J130" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n" s="0">
+        <v>131.0</v>
+      </c>
+      <c r="B131" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="C131" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D131" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E131" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F131" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G131" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H131" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="I131" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J131" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n" s="0">
+        <v>132.0</v>
+      </c>
+      <c r="B132" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="C132" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D132" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E132" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F132" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G132" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H132" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="I132" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J132" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n" s="0">
+        <v>133.0</v>
+      </c>
+      <c r="B133" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="C133" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D133" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="E133" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F133" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G133" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H133" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="I133" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J133" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n" s="0">
+        <v>134.0</v>
+      </c>
+      <c r="B134" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="C134" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D134" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="E134" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F134" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G134" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H134" t="s" s="0">
+        <v>332</v>
+      </c>
+      <c r="I134" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J134" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n" s="0">
+        <v>135.0</v>
+      </c>
+      <c r="B135" t="s" s="0">
+        <v>333</v>
+      </c>
+      <c r="C135" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D135" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="E135" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F135" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G135" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H135" t="s" s="0">
+        <v>334</v>
+      </c>
+      <c r="I135" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J135" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n" s="0">
+        <v>136.0</v>
+      </c>
+      <c r="B136" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="C136" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D136" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E136" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F136" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G136" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H136" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="I136" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J136" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n" s="0">
+        <v>137.0</v>
+      </c>
+      <c r="B137" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="C137" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D137" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E137" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F137" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G137" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H137" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="I137" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J137" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n" s="0">
+        <v>138.0</v>
+      </c>
+      <c r="B138" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="C138" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D138" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E138" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F138" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G138" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H138" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="I138" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J138" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n" s="0">
+        <v>139.0</v>
+      </c>
+      <c r="B139" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="C139" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D139" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="E139" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F139" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G139" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H139" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="I139" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J139" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n" s="0">
+        <v>140.0</v>
+      </c>
+      <c r="B140" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="C140" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D140" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="E140" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F140" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G140" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H140" t="s" s="0">
+        <v>344</v>
+      </c>
+      <c r="I140" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J140" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n" s="0">
+        <v>141.0</v>
+      </c>
+      <c r="B141" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="C141" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D141" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E141" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F141" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G141" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H141" t="s" s="0">
+        <v>346</v>
+      </c>
+      <c r="I141" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J141" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n" s="0">
+        <v>142.0</v>
+      </c>
+      <c r="B142" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="C142" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D142" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E142" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F142" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G142" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H142" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="I142" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J142" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n" s="0">
+        <v>143.0</v>
+      </c>
+      <c r="B143" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="C143" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D143" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="E143" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F143" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G143" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H143" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="I143" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J143" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n" s="0">
+        <v>144.0</v>
+      </c>
+      <c r="B144" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="C144" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D144" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="E144" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F144" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G144" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H144" t="s" s="0">
+        <v>352</v>
+      </c>
+      <c r="I144" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J144" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n" s="0">
+        <v>145.0</v>
+      </c>
+      <c r="B145" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="C145" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D145" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E145" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F145" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G145" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H145" t="s" s="0">
+        <v>354</v>
+      </c>
+      <c r="I145" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J145" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n" s="0">
+        <v>146.0</v>
+      </c>
+      <c r="B146" t="s" s="0">
+        <v>355</v>
+      </c>
+      <c r="C146" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D146" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E146" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F146" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G146" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H146" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="I146" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J146" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n" s="0">
+        <v>147.0</v>
+      </c>
+      <c r="B147" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="C147" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D147" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="E147" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F147" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G147" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H147" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="I147" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J147" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n" s="0">
+        <v>148.0</v>
+      </c>
+      <c r="B148" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="C148" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D148" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="E148" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F148" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G148" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H148" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="I148" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J148" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n" s="0">
+        <v>149.0</v>
+      </c>
+      <c r="B149" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="C149" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D149" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="E149" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F149" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G149" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H149" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="I149" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J149" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n" s="0">
+        <v>150.0</v>
+      </c>
+      <c r="B150" t="s" s="0">
+        <v>363</v>
+      </c>
+      <c r="C150" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D150" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E150" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F150" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G150" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H150" t="s" s="0">
+        <v>364</v>
+      </c>
+      <c r="I150" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J150" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n" s="0">
+        <v>151.0</v>
+      </c>
+      <c r="B151" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="C151" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D151" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="E151" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F151" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G151" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H151" t="s" s="0">
+        <v>366</v>
+      </c>
+      <c r="I151" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J151" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n" s="0">
+        <v>152.0</v>
+      </c>
+      <c r="B152" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="C152" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D152" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E152" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F152" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G152" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H152" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="I152" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J152" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n" s="0">
+        <v>153.0</v>
+      </c>
+      <c r="B153" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="C153" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D153" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E153" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="F153" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G153" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H153" t="s" s="0">
+        <v>370</v>
+      </c>
+      <c r="I153" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J153" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n" s="0">
+        <v>154.0</v>
+      </c>
+      <c r="B154" t="s" s="0">
+        <v>371</v>
+      </c>
+      <c r="C154" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D154" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E154" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F154" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G154" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H154" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="I154" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J154" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n" s="0">
+        <v>155.0</v>
+      </c>
+      <c r="B155" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="C155" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D155" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="E155" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F155" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G155" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H155" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="I155" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J155" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n" s="0">
+        <v>156.0</v>
+      </c>
+      <c r="B156" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="C156" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D156" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="E156" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F156" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G156" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H156" t="s" s="0">
+        <v>376</v>
+      </c>
+      <c r="I156" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J156" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n" s="0">
+        <v>157.0</v>
+      </c>
+      <c r="B157" t="s" s="0">
+        <v>377</v>
+      </c>
+      <c r="C157" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D157" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="E157" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F157" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G157" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H157" t="s" s="0">
+        <v>378</v>
+      </c>
+      <c r="I157" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J157" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n" s="0">
+        <v>158.0</v>
+      </c>
+      <c r="B158" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="C158" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D158" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="E158" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F158" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G158" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H158" t="s" s="0">
+        <v>380</v>
+      </c>
+      <c r="I158" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J158" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n" s="0">
+        <v>159.0</v>
+      </c>
+      <c r="B159" t="s" s="0">
+        <v>381</v>
+      </c>
+      <c r="C159" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D159" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="E159" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F159" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G159" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H159" t="s" s="0">
+        <v>382</v>
+      </c>
+      <c r="I159" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J159" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n" s="0">
+        <v>160.0</v>
+      </c>
+      <c r="B160" t="s" s="0">
+        <v>383</v>
+      </c>
+      <c r="C160" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D160" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="E160" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F160" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G160" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H160" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="I160" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J160" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n" s="0">
+        <v>161.0</v>
+      </c>
+      <c r="B161" t="s" s="0">
+        <v>385</v>
+      </c>
+      <c r="C161" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D161" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="E161" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F161" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G161" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H161" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="I161" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J161" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n" s="0">
+        <v>162.0</v>
+      </c>
+      <c r="B162" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="C162" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D162" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="E162" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F162" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G162" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H162" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="I162" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J162" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n" s="0">
+        <v>163.0</v>
+      </c>
+      <c r="B163" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="C163" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D163" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="E163" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F163" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G163" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H163" t="s" s="0">
+        <v>390</v>
+      </c>
+      <c r="I163" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J163" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n" s="0">
+        <v>164.0</v>
+      </c>
+      <c r="B164" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="C164" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D164" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="E164" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F164" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G164" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H164" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="I164" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J164" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n" s="0">
+        <v>165.0</v>
+      </c>
+      <c r="B165" t="s" s="0">
+        <v>393</v>
+      </c>
+      <c r="C165" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D165" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="E165" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F165" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G165" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H165" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="I165" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J165" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n" s="0">
+        <v>166.0</v>
+      </c>
+      <c r="B166" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="C166" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D166" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="E166" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F166" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G166" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H166" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="I166" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J166" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n" s="0">
+        <v>167.0</v>
+      </c>
+      <c r="B167" t="s" s="0">
+        <v>397</v>
+      </c>
+      <c r="C167" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="D167" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="E167" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="F167" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G167" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H167" t="s" s="0">
+        <v>400</v>
+      </c>
+      <c r="I167" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J167" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n" s="0">
+        <v>168.0</v>
+      </c>
+      <c r="B168" t="s" s="0">
+        <v>397</v>
+      </c>
+      <c r="C168" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="D168" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="E168" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="F168" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G168" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H168" t="s" s="0">
+        <v>401</v>
+      </c>
+      <c r="I168" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J168" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n" s="0">
+        <v>169.0</v>
+      </c>
+      <c r="B169" t="s" s="0">
+        <v>397</v>
+      </c>
+      <c r="C169" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="D169" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="E169" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="F169" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G169" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H169" t="s" s="0">
+        <v>402</v>
+      </c>
+      <c r="I169" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J169" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n" s="0">
+        <v>170.0</v>
+      </c>
+      <c r="B170" t="s" s="0">
+        <v>397</v>
+      </c>
+      <c r="C170" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="D170" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="E170" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="F170" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G170" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H170" t="s" s="0">
+        <v>403</v>
+      </c>
+      <c r="I170" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J170" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n" s="0">
+        <v>171.0</v>
+      </c>
+      <c r="B171" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="C171" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="D171" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="E171" t="s" s="0">
+        <v>406</v>
+      </c>
+      <c r="F171" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G171" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H171" t="s" s="0">
+        <v>407</v>
+      </c>
+      <c r="I171" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J171" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n" s="0">
+        <v>172.0</v>
+      </c>
+      <c r="B172" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="C172" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="D172" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="E172" t="s" s="0">
+        <v>406</v>
+      </c>
+      <c r="F172" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G172" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H172" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="I172" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J172" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n" s="0">
+        <v>173.0</v>
+      </c>
+      <c r="B173" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="C173" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="D173" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="E173" t="s" s="0">
+        <v>406</v>
+      </c>
+      <c r="F173" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G173" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H173" t="s" s="0">
+        <v>409</v>
+      </c>
+      <c r="I173" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J173" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n" s="0">
+        <v>174.0</v>
+      </c>
+      <c r="B174" t="s" s="0">
+        <v>410</v>
+      </c>
+      <c r="C174" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="D174" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="E174" t="s" s="0">
+        <v>411</v>
+      </c>
+      <c r="F174" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G174" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H174" t="s" s="0">
+        <v>412</v>
+      </c>
+      <c r="I174" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J174" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n" s="0">
+        <v>175.0</v>
+      </c>
+      <c r="B175" t="s" s="0">
+        <v>410</v>
+      </c>
+      <c r="C175" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="D175" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="E175" t="s" s="0">
+        <v>411</v>
+      </c>
+      <c r="F175" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G175" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H175" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="I175" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J175" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n" s="0">
+        <v>176.0</v>
+      </c>
+      <c r="B176" t="s" s="0">
+        <v>410</v>
+      </c>
+      <c r="C176" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="D176" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="E176" t="s" s="0">
+        <v>411</v>
+      </c>
+      <c r="F176" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G176" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H176" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="I176" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J176" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n" s="0">
+        <v>177.0</v>
+      </c>
+      <c r="B177" t="s" s="0">
+        <v>415</v>
+      </c>
+      <c r="C177" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="D177" t="s" s="0">
+        <v>416</v>
+      </c>
+      <c r="E177" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="F177" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G177" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H177" t="s" s="0">
+        <v>418</v>
+      </c>
+      <c r="I177" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J177" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n" s="0">
+        <v>178.0</v>
+      </c>
+      <c r="B178" t="s" s="0">
+        <v>415</v>
+      </c>
+      <c r="C178" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="D178" t="s" s="0">
+        <v>416</v>
+      </c>
+      <c r="E178" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="F178" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G178" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H178" t="s" s="0">
+        <v>419</v>
+      </c>
+      <c r="I178" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J178" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n" s="0">
+        <v>179.0</v>
+      </c>
+      <c r="B179" t="s" s="0">
+        <v>420</v>
+      </c>
+      <c r="C179" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="D179" t="s" s="0">
+        <v>421</v>
+      </c>
+      <c r="E179" t="s" s="0">
+        <v>406</v>
+      </c>
+      <c r="F179" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G179" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H179" t="s" s="0">
+        <v>422</v>
+      </c>
+      <c r="I179" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J179" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n" s="0">
+        <v>180.0</v>
+      </c>
+      <c r="B180" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="C180" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="D180" t="s" s="0">
+        <v>421</v>
+      </c>
+      <c r="E180" t="s" s="0">
+        <v>406</v>
+      </c>
+      <c r="F180" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G180" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H180" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="I180" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J180" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n" s="0">
+        <v>181.0</v>
+      </c>
+      <c r="B181" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="C181" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="D181" t="s" s="0">
+        <v>426</v>
+      </c>
+      <c r="E181" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F181" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G181" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H181" t="s" s="0">
+        <v>427</v>
+      </c>
+      <c r="I181" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J181" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n" s="0">
+        <v>182.0</v>
+      </c>
+      <c r="B182" t="s" s="0">
+        <v>428</v>
+      </c>
+      <c r="C182" t="s" s="0">
+        <v>429</v>
+      </c>
+      <c r="D182" t="s" s="0">
+        <v>430</v>
+      </c>
+      <c r="E182" t="s" s="0">
+        <v>431</v>
+      </c>
+      <c r="F182" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G182" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H182" t="s" s="0">
+        <v>432</v>
+      </c>
+      <c r="I182" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J182" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n" s="0">
+        <v>183.0</v>
+      </c>
+      <c r="B183" t="s" s="0">
+        <v>433</v>
+      </c>
+      <c r="C183" t="s" s="0">
+        <v>429</v>
+      </c>
+      <c r="D183" t="s" s="0">
+        <v>430</v>
+      </c>
+      <c r="E183" t="s" s="0">
+        <v>431</v>
+      </c>
+      <c r="F183" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G183" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H183" t="s" s="0">
+        <v>434</v>
+      </c>
+      <c r="I183" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J183" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n" s="0">
+        <v>184.0</v>
+      </c>
+      <c r="B184" t="s" s="0">
+        <v>435</v>
+      </c>
+      <c r="C184" t="s" s="0">
+        <v>436</v>
+      </c>
+      <c r="D184" t="s" s="0">
+        <v>437</v>
+      </c>
+      <c r="E184" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="F184" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G184" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H184" t="s" s="0">
+        <v>438</v>
+      </c>
+      <c r="I184" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J184" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n" s="0">
+        <v>185.0</v>
+      </c>
+      <c r="B185" t="s" s="0">
+        <v>439</v>
+      </c>
+      <c r="C185" t="s" s="0">
+        <v>436</v>
+      </c>
+      <c r="D185" t="s" s="0">
+        <v>440</v>
+      </c>
+      <c r="E185" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="F185" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G185" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H185" t="s" s="0">
+        <v>441</v>
+      </c>
+      <c r="I185" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J185" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n" s="0">
+        <v>186.0</v>
+      </c>
+      <c r="B186" t="s" s="0">
+        <v>442</v>
+      </c>
+      <c r="C186" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="D186" t="s" s="0">
+        <v>443</v>
+      </c>
+      <c r="E186" t="s" s="0">
+        <v>444</v>
+      </c>
+      <c r="F186" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G186" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H186" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="I186" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J186" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n" s="0">
+        <v>187.0</v>
+      </c>
+      <c r="B187" t="s" s="0">
+        <v>446</v>
+      </c>
+      <c r="C187" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="D187" t="s" s="0">
+        <v>443</v>
+      </c>
+      <c r="E187" t="s" s="0">
+        <v>444</v>
+      </c>
+      <c r="F187" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G187" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H187" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="I187" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J187" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n" s="0">
+        <v>188.0</v>
+      </c>
+      <c r="B188" t="s" s="0">
+        <v>448</v>
+      </c>
+      <c r="C188" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="D188" t="s" s="0">
+        <v>449</v>
+      </c>
+      <c r="E188" t="s" s="0">
+        <v>450</v>
+      </c>
+      <c r="F188" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G188" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H188" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="I188" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J188" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n" s="0">
+        <v>189.0</v>
+      </c>
+      <c r="B189" t="s" s="0">
+        <v>452</v>
+      </c>
+      <c r="C189" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="D68" t="s" s="0">
-        <v>106</v>
-      </c>
-      <c r="E68" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="F68" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="G68" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="H68" t="s" s="0">
-        <v>107</v>
-      </c>
-      <c r="I68" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="J68" t="s" s="0">
-        <v>7</v>
+      <c r="D189" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E189" t="s" s="0">
+        <v>453</v>
+      </c>
+      <c r="F189" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G189" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H189" t="s" s="0">
+        <v>454</v>
+      </c>
+      <c r="I189" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J189" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n" s="0">
+        <v>190.0</v>
+      </c>
+      <c r="B190" t="s" s="0">
+        <v>455</v>
+      </c>
+      <c r="C190" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D190" t="s" s="0">
+        <v>456</v>
+      </c>
+      <c r="E190" t="s" s="0">
+        <v>457</v>
+      </c>
+      <c r="F190" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G190" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H190" t="s" s="0">
+        <v>458</v>
+      </c>
+      <c r="I190" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J190" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n" s="0">
+        <v>191.0</v>
+      </c>
+      <c r="B191" t="s" s="0">
+        <v>459</v>
+      </c>
+      <c r="C191" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D191" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="E191" t="s" s="0">
+        <v>453</v>
+      </c>
+      <c r="F191" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G191" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H191" t="s" s="0">
+        <v>460</v>
+      </c>
+      <c r="I191" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J191" t="s" s="0">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
